--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Ryk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Ryk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt5a</t>
+  </si>
+  <si>
+    <t>Ryk</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt5a</t>
-  </si>
-  <si>
-    <t>Ryk</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H2">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I2">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J2">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.182053333333334</v>
+        <v>7.60267</v>
       </c>
       <c r="N2">
-        <v>27.54616</v>
+        <v>22.80801</v>
       </c>
       <c r="O2">
-        <v>0.1632474062119585</v>
+        <v>0.1369613544323865</v>
       </c>
       <c r="P2">
-        <v>0.1844076677824049</v>
+        <v>0.1558153465164618</v>
       </c>
       <c r="Q2">
-        <v>0.5957989553244445</v>
+        <v>0.5217256260800001</v>
       </c>
       <c r="R2">
-        <v>5.36219059792</v>
+        <v>4.69553063472</v>
       </c>
       <c r="S2">
-        <v>0.001826118023765647</v>
+        <v>0.001640954590484524</v>
       </c>
       <c r="T2">
-        <v>0.002071957040370942</v>
+        <v>0.001866847105840713</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H3">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I3">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J3">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>27.25159233333333</v>
       </c>
       <c r="N3">
-        <v>81.754777</v>
+        <v>81.75477699999999</v>
       </c>
       <c r="O3">
-        <v>0.4845051103561108</v>
+        <v>0.4909347632361489</v>
       </c>
       <c r="P3">
-        <v>0.5473070568326257</v>
+        <v>0.5585164557377457</v>
       </c>
       <c r="Q3">
-        <v>1.768283155597111</v>
+        <v>1.870113272282667</v>
       </c>
       <c r="R3">
-        <v>15.914548400374</v>
+        <v>16.831019450544</v>
       </c>
       <c r="S3">
-        <v>0.005419770734238135</v>
+        <v>0.005881963249410562</v>
       </c>
       <c r="T3">
-        <v>0.006149401070388989</v>
+        <v>0.006691669673553409</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H4">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I4">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J4">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3190983333333333</v>
+        <v>0.3673663333333333</v>
       </c>
       <c r="N4">
-        <v>0.957295</v>
+        <v>1.102099</v>
       </c>
       <c r="O4">
-        <v>0.00567323814751954</v>
+        <v>0.00661806846623527</v>
       </c>
       <c r="P4">
-        <v>0.006408607890528383</v>
+        <v>0.007529106554252038</v>
       </c>
       <c r="Q4">
-        <v>0.02070543992111111</v>
+        <v>0.02521014725866667</v>
       </c>
       <c r="R4">
-        <v>0.18634895929</v>
+        <v>0.226891325328</v>
       </c>
       <c r="S4">
-        <v>6.346197268732682E-05</v>
+        <v>7.929207384679345E-05</v>
       </c>
       <c r="T4">
-        <v>7.200546700381835E-05</v>
+        <v>9.020735822633996E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H5">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I5">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J5">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.362295</v>
+        <v>20.150343</v>
       </c>
       <c r="N5">
-        <v>38.72459</v>
+        <v>40.300686</v>
       </c>
       <c r="O5">
-        <v>0.344241568014646</v>
+        <v>0.3630064529378702</v>
       </c>
       <c r="P5">
-        <v>0.2592416266996866</v>
+        <v>0.2753184233934096</v>
       </c>
       <c r="Q5">
-        <v>1.256367689763333</v>
+        <v>1.382797138032</v>
       </c>
       <c r="R5">
-        <v>7.53820613858</v>
+        <v>8.296782828192001</v>
       </c>
       <c r="S5">
-        <v>0.003850754792787901</v>
+        <v>0.00434923491953323</v>
       </c>
       <c r="T5">
-        <v>0.002912772120904626</v>
+        <v>0.003298631446693304</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H6">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I6">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J6">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1312043333333333</v>
+        <v>0.1376283333333333</v>
       </c>
       <c r="N6">
-        <v>0.393613</v>
+        <v>0.412885</v>
       </c>
       <c r="O6">
-        <v>0.00233267726976492</v>
+        <v>0.002479360927359111</v>
       </c>
       <c r="P6">
-        <v>0.002635040794754541</v>
+        <v>0.002820667798130978</v>
       </c>
       <c r="Q6">
-        <v>0.00851349931177778</v>
+        <v>0.009444606746666667</v>
       </c>
       <c r="R6">
-        <v>0.076621493806</v>
+        <v>0.08500146072</v>
       </c>
       <c r="S6">
-        <v>2.609379288033132E-05</v>
+        <v>2.970559623975098E-05</v>
       </c>
       <c r="T6">
-        <v>2.96066394202142E-05</v>
+        <v>3.37948452010957E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>16.977119</v>
       </c>
       <c r="I7">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J7">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.182053333333334</v>
+        <v>7.60267</v>
       </c>
       <c r="N7">
-        <v>27.54616</v>
+        <v>22.80801</v>
       </c>
       <c r="O7">
-        <v>0.1632474062119585</v>
+        <v>0.1369613544323865</v>
       </c>
       <c r="P7">
-        <v>0.1844076677824049</v>
+        <v>0.1558153465164618</v>
       </c>
       <c r="Q7">
-        <v>51.96160403478223</v>
+        <v>43.02381110257667</v>
       </c>
       <c r="R7">
-        <v>467.65443631304</v>
+        <v>387.21429992319</v>
       </c>
       <c r="S7">
-        <v>0.1592618127704134</v>
+        <v>0.1353203998419019</v>
       </c>
       <c r="T7">
-        <v>0.1807022492179536</v>
+        <v>0.1539484994106211</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>16.977119</v>
       </c>
       <c r="I8">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J8">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,13 +933,13 @@
         <v>27.25159233333333</v>
       </c>
       <c r="N8">
-        <v>81.754777</v>
+        <v>81.75477699999999</v>
       </c>
       <c r="O8">
-        <v>0.4845051103561108</v>
+        <v>0.4909347632361489</v>
       </c>
       <c r="P8">
-        <v>0.5473070568326257</v>
+        <v>0.5585164557377457</v>
       </c>
       <c r="Q8">
         <v>154.2178419941626</v>
@@ -948,10 +948,10 @@
         <v>1387.960577947463</v>
       </c>
       <c r="S8">
-        <v>0.4726761910792974</v>
+        <v>0.4850527999867384</v>
       </c>
       <c r="T8">
-        <v>0.5363096739513683</v>
+        <v>0.5518247860641923</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>16.977119</v>
       </c>
       <c r="I9">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J9">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3190983333333333</v>
+        <v>0.3673663333333333</v>
       </c>
       <c r="N9">
-        <v>0.957295</v>
+        <v>1.102099</v>
       </c>
       <c r="O9">
-        <v>0.00567323814751954</v>
+        <v>0.00661806846623527</v>
       </c>
       <c r="P9">
-        <v>0.006408607890528383</v>
+        <v>0.007529106554252038</v>
       </c>
       <c r="Q9">
-        <v>1.805790125900556</v>
+        <v>2.078940652531222</v>
       </c>
       <c r="R9">
-        <v>16.252111133105</v>
+        <v>18.710465872781</v>
       </c>
       <c r="S9">
-        <v>0.005534729234711948</v>
+        <v>0.006538776392388476</v>
       </c>
       <c r="T9">
-        <v>0.006279835725382446</v>
+        <v>0.007438899196025698</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>16.977119</v>
       </c>
       <c r="I10">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J10">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.362295</v>
+        <v>20.150343</v>
       </c>
       <c r="N10">
-        <v>38.72459</v>
+        <v>40.300686</v>
       </c>
       <c r="O10">
-        <v>0.344241568014646</v>
+        <v>0.3630064529378702</v>
       </c>
       <c r="P10">
-        <v>0.2592416266996866</v>
+        <v>0.2753184233934096</v>
       </c>
       <c r="Q10">
-        <v>109.5719954427017</v>
+        <v>114.031590333939</v>
       </c>
       <c r="R10">
-        <v>657.4319726562101</v>
+        <v>684.1895420036341</v>
       </c>
       <c r="S10">
-        <v>0.3358371040931489</v>
+        <v>0.358657218018337</v>
       </c>
       <c r="T10">
-        <v>0.2540325226108857</v>
+        <v>0.2720197919467163</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>16.977119</v>
       </c>
       <c r="I11">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J11">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,338 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1312043333333333</v>
+        <v>0.1376283333333333</v>
       </c>
       <c r="N11">
-        <v>0.393613</v>
+        <v>0.412885</v>
       </c>
       <c r="O11">
-        <v>0.00233267726976492</v>
+        <v>0.002479360927359111</v>
       </c>
       <c r="P11">
-        <v>0.002635040794754541</v>
+        <v>0.002820667798130978</v>
       </c>
       <c r="Q11">
-        <v>0.7424905267718891</v>
+        <v>0.7788441975905557</v>
       </c>
       <c r="R11">
-        <v>6.682414740947</v>
+        <v>7.009597778315001</v>
       </c>
       <c r="S11">
-        <v>0.002275726268561597</v>
+        <v>0.00244965533111936</v>
       </c>
       <c r="T11">
-        <v>0.002582093272580511</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H12">
-        <v>0.153465</v>
-      </c>
-      <c r="I12">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J12">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>9.182053333333334</v>
-      </c>
-      <c r="N12">
-        <v>27.54616</v>
-      </c>
-      <c r="O12">
-        <v>0.1632474062119585</v>
-      </c>
-      <c r="P12">
-        <v>0.1844076677824049</v>
-      </c>
-      <c r="Q12">
-        <v>0.7045619074000001</v>
-      </c>
-      <c r="R12">
-        <v>4.2273714444</v>
-      </c>
-      <c r="S12">
-        <v>0.002159475417779497</v>
-      </c>
-      <c r="T12">
-        <v>0.001633461524080337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H13">
-        <v>0.153465</v>
-      </c>
-      <c r="I13">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J13">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>27.25159233333333</v>
-      </c>
-      <c r="N13">
-        <v>81.754777</v>
-      </c>
-      <c r="O13">
-        <v>0.4845051103561108</v>
-      </c>
-      <c r="P13">
-        <v>0.5473070568326257</v>
-      </c>
-      <c r="Q13">
-        <v>2.0910828087175</v>
-      </c>
-      <c r="R13">
-        <v>12.546496852305</v>
-      </c>
-      <c r="S13">
-        <v>0.006409148542575249</v>
-      </c>
-      <c r="T13">
-        <v>0.004847981810868308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H14">
-        <v>0.153465</v>
-      </c>
-      <c r="I14">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J14">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.3190983333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.957295</v>
-      </c>
-      <c r="O14">
-        <v>0.00567323814751954</v>
-      </c>
-      <c r="P14">
-        <v>0.006408607890528383</v>
-      </c>
-      <c r="Q14">
-        <v>0.0244852128625</v>
-      </c>
-      <c r="R14">
-        <v>0.146911277175</v>
-      </c>
-      <c r="S14">
-        <v>7.504694012026445E-05</v>
-      </c>
-      <c r="T14">
-        <v>5.676669814211806E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H15">
-        <v>0.153465</v>
-      </c>
-      <c r="I15">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J15">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>19.362295</v>
-      </c>
-      <c r="N15">
-        <v>38.72459</v>
-      </c>
-      <c r="O15">
-        <v>0.344241568014646</v>
-      </c>
-      <c r="P15">
-        <v>0.2592416266996866</v>
-      </c>
-      <c r="Q15">
-        <v>1.4857173010875</v>
-      </c>
-      <c r="R15">
-        <v>5.942869204350001</v>
-      </c>
-      <c r="S15">
-        <v>0.004553709128709214</v>
-      </c>
-      <c r="T15">
-        <v>0.002296331967896295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H16">
-        <v>0.153465</v>
-      </c>
-      <c r="I16">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J16">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.1312043333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.393613</v>
-      </c>
-      <c r="O16">
-        <v>0.00233267726976492</v>
-      </c>
-      <c r="P16">
-        <v>0.002635040794754541</v>
-      </c>
-      <c r="Q16">
-        <v>0.0100676365075</v>
-      </c>
-      <c r="R16">
-        <v>0.060405819045</v>
-      </c>
-      <c r="S16">
-        <v>3.085720832299098E-05</v>
-      </c>
-      <c r="T16">
-        <v>2.334088275381519E-05</v>
+        <v>0.002786872952929882</v>
       </c>
     </row>
   </sheetData>
